--- a/data/scraping.xlsx
+++ b/data/scraping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shozendan/Documents/DADText/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shozendan/Documents/DADText/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00D1DFA5-063D-6B49-8935-9825C8A65E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7D9141-76F4-0246-8BE5-3B63A7DBB3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="560" windowWidth="28240" windowHeight="16520" xr2:uid="{72F65178-65FA-FB44-B2BE-B938B99CE375}"/>
+    <workbookView xWindow="480" yWindow="-20240" windowWidth="28240" windowHeight="16520" xr2:uid="{72F65178-65FA-FB44-B2BE-B938B99CE375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,174 +34,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A5%E6%A5%AD%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>uncyclopedia_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>wikipedia_link</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E4%BA%AC%E9%83%BD%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京都大学</t>
-    <rPh sb="0" eb="4">
-      <t>キョウト</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>暗い</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クライ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%85%B6%E6%87%89%E7%BE%A9%E5%A1%BE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>慶應義塾大学</t>
-    <rPh sb="0" eb="6">
-      <t>ケイオウ</t>
+    <t>明るい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカルイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%9D%B1%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>東京大学</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">トウキョウダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%9D%B1%E5%8C%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>東北大学</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">トウホクダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日本大学</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ニホンダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E6%97%A9%E7%A8%B2%E7%94%B0%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>早稲田大学</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ワセダ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京工業大学</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">トウキョウ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">コウギョウ </t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">ダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E4%B8%8A%E6%99%BA%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>上智大学</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョウチ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E4%B8%80%E6%A9%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>一橋大学</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒトツバシ </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.uncyclopedia.info/wiki/%E5%8D%83%E8%91%89%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>千葉大学</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">チバダイガク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%85%B6%E6%87%89%E7%BE%A9%E5%A1%BE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%97%A9%E7%A8%B2%E7%94%B0%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A5%E6%A5%AD%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E4%B8%8A%E6%99%BA%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E4%B8%80%E6%A9%8B%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://ja.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E5%A4%A7%E5%AD%A6</t>
-    <phoneticPr fontId="1"/>
+    <t>https://news.yahoo.co.jp/articles/8a37d96defb3611779285a7467563b4c951a6c87</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/210740ae0ac9541b983f7537f6b5fdd0df4a4ec8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/e35b30e8f82590ceab9e562548521dad80014fda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/714af523a53edc2abb7ae3b25d94716ff395b0bf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/6e8807f874a8c630d4568d16e982f0153716f418</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/17bacb4f5e523c5731b3da59149cc072c32ce157</t>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/247a6e5ca47318c16c47fdab2dfd492c226ae586</t>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/a44a547832a9c0e5197c83735ac30cd4fb6f5f61</t>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/eb2750726c3852699fa282e515aeddf7342f0e20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/9e320ae4b549a7d7871328cf599afc8b4d9e7142</t>
+  </si>
+  <si>
+    <t>https://news.yahoo.co.jp/articles/a63b7bdc37819773567354878d3504006779a2a9</t>
   </si>
 </sst>
 </file>
@@ -581,154 +466,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEC5725-639F-CC4D-B0CB-1B24E8250AA7}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="93.140625" customWidth="1"/>
-    <col min="3" max="3" width="88.42578125" customWidth="1"/>
+    <col min="1" max="1" width="93.140625" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C78B0BE1-601E-DA4E-8602-9351497CCA00}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{BDF157AC-2212-EA4D-938C-27DF6F7D152B}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{BD0D948C-1D2D-7C4F-9BDB-38E2A836C603}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{73B83923-0A96-F947-BFF1-FCE2EFE64A6A}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{8100CF5B-86ED-F14C-AF68-8BDA5D80730A}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{A7E61862-7490-A946-BBE8-EA0DEEBCFC4C}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{89263D96-720E-FA4C-95C8-79F5BE219890}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{9AB16B54-2FC0-234B-934D-E4E11A25A5B5}"/>
-    <hyperlink ref="C9" r:id="rId9" xr:uid="{0706F112-EED6-9949-ADFA-872A449D8370}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{7BAE7B2C-31B5-0743-A29C-2C2B5FCAB4E2}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{C20396D5-9B1E-D140-A185-F058337479A3}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F7F3AC5B-8992-3A44-AA75-4BBF8D83321E}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{1B595AED-0E34-904B-B913-D1F17DEA48C4}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{94C8BC69-6270-4A4D-953D-7FDA6203312F}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{9425C129-3204-774A-905F-2D8339146449}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{02817918-23F2-7145-88CF-854A6ABA18F0}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{DE00183C-2FC5-5442-AD36-169F0A068B16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
